--- a/docs/SVE_FAQ.xlsx
+++ b/docs/SVE_FAQ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5669,6 +5669,336 @@
         </is>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>バトルの準備</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>フォロワーが攻撃する前に、非ターンプレイヤーは《Quick》を持つカードをプレイすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>いいえ。非ターンプレイヤーが《Quick》を持つカードをプレイすることができるのは、ターンプレイヤーのフォロワーが攻撃を宣言したあとか、エンドフェイズにのみプレイすることができます。また、攻撃フォロワーの【攻撃時】能力や、「エンドフェイズが来たとき」能力、エンドフェイズに【守護】の能力でアクトするタイミングは《Quick》を持つカードのプレイより先なため、それらの能力より先に《Quick》を持つカードをプレイすることはできません。</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>バトルの準備</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>自分のターンに、《Quick》を持たないカードをプレイすることができるタイミング以外で《Quick》を持つカードをプレイすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>いいえ。ターンプレイヤーが自分のターンに《Quick》を持つカードをプレイすることができるのは、《Quick》を持たないカードをプレイすることができるタイミングと同じです。</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>ワードローブレイダー</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>『ワードローブレイダー(EVOLVE)』の【進化時】能力にある「フォロワー1体を墓場に置く」というコストは、相手のフォロワーやこのフォロワー自身を墓場に置いて支払うことはできますか？</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>「：」より前にあるテキストはコストであり、コストは基本的に自分の領域やPP等からのみ支払うことができます。よって、相手の場のフォロワーを墓場に置くことはできず、能力が誘発した『ワードローブレイダー』は墓場に置くことができます。</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>スペクター</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>『スペクター』の《ファンファーレ》能力にある「リーダーの《体力》-2」というコストは、必ず支払わなければいけませんか？</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>いいえ。《ファンファーレ》や《ラストワード》といった自動能力にコストがある場合、そのコストを支払わないことで、誘発した能力をプレイしないことが選択できます。また、自動能力にコストがない場合、その能力は可能な限りプレイする必要があります。</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>【コンボ_n】でカードをプレイした回数を数えるとき、《ファンファーレ》能力などがプレイされた回数も数えることはできますか？</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>いいえ。【コンボ_n】で数えることができるのはカードのプレイのみであり、能力のプレイは数えることができません。また、『フェアリープリンセス・アリア』の《ファンファーレ》能力で『フェアリー』を場に出す行為などの、そのカード自体をプレイせずにフォロワーが場に出たり、場にトークンが作成される場合は、それらはプレイではないため数えることができません。なお、EXエリアのカードをプレイした回数は【コンボ_n】でカードをプレイした回数に数えることができます。</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>夢想の白兎</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>『夢想の白兎』の「《起動》これを《アクト》墓場に置く：相手のフォロワー1体を選ぶ。それをアクトする。」という能力は、相手の場にフォロワーがない場合や、【オーラ】を持つフォロワーしかない場合でも、目標を選ばずにプレイすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>いいえ。相手の場にフォロワーがない場合や、【オーラ】を持つフォロワーしかなければプレイすることはできず。コストを支払いこのアミュレットを墓場に置くこともできません。また、相手の場にアクト状態の【オーラ】を持たないフォロワーがある場合、そのフォロワーを選んでこの能力をプレイすることができます。その場合、選ばれたフォロワーは状態が変わることなく、アクト状態のままとなります。</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>炎の握撃</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>『夜の群れ』や『炎の握撃』などのスペルは、相手の場にフォロワーがない場合や【オーラ】を持つフォロワーしかない場合、目標を選ばずにプレイすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>いいえ。スペルのテキストに「選ぶ」という指示がある場合、目標に選ぶことができるカードがなければ、そのカードをプレイすることはできず、コストを支払うこともできません。</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>ウルズ</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>『ウルズ』の能力で相手の場の進化したフォロワーをEXエリアに置くとき、進化する前と後のカードは両方ともEXエリアに置かれますか？</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>いいえ。相手のエボルヴフォロワーをEXエリアに置く場合、進化する前のフォロワーはEXエリアに置かれ、進化した後のエボルヴフォロワーはエボルヴデッキ置き場に表向きで置かれます。</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>アルカード</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>自分の場のフォロワーが相手のフォロワーに攻撃され、『アルカード』の【攻撃時】能力や『ダークオファリング』や『ソウルコンバージョン』で攻撃目標のフォロワーが破壊されたとき、攻撃フォロワーの攻撃はどうなりますか？</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>フォロワーへの攻撃中に攻撃目標が場を離れた場合、新たな攻撃目標を決めることはできず、攻撃によってアクトしたままとなり、ダメージはどこにも与えません。また、攻撃中のフォロワーや攻撃目標のフォロワーが場を離れていても、引き続き《Quick》を持つカードをプレイすることができます。</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>ティターニアの妖精郷</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>『ティターニアの妖精郷』の「《ファンファーレ》自分の妖精・トークンすべては《攻撃力》+1/《体力》+1する。」能力は、自分のEXエリアの妖精・トークンも《攻撃力》+1/《体力》+1しますか？</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>いいえ。自分の場の妖精・トークンのみを《攻撃力》+1/《体力》+1します。</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>光の道筋</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>自分のエンドフェイズに手札の枚数上限の超過によって『光の道筋』を捨てたとき、『光の道筋』の効果で1枚引きますか？</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>はい。1枚引きます。その場合、手札の枚数が再び上限を超過するため、改めて手札が7枚になるように捨てる必要があります。</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>骸の王</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>『骸の王』をプレイする際、自分の場のスタンド状態のトークンを4枚墓場に置き、コストを-9することはできますか？</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>はい。トークンは一度墓場に置かれるため、自分の場のトークンを含めたカード4枚を墓場に置き、コストを-9することができます。</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>死の祝福</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>『死の祝福』の効果で『ルシフェル』を場に出し、その後『ルシフェル』が《進化》しました。このとき、《進化》した『ルシフェル（EVOLVE）』は【守護】を持ちますか？</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>はい。【守護】を持ちます。</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>ゴーレムプロテクション</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>自分の場にカードが4枚あり、そのうちの1枚はスタックカウンター1つが置かれているアミュレットのとき『ゴーレムプロテクション』をプレイしました。その場合『防御型ゴーレム』は2体場に出ますか？</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>はい。『ゴーレムプロテクション』をプレイする際にPPや【土の秘術】でのコストを支払うため、先にアミュレットが墓場に置かれ、『ゴーレムプロテクション』の効果で『防御型ゴーレム』が2体場に出ます。その後、ゴーレム・フォロワーすべてを《攻撃力》+1/《体力》+1します。</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>アルビダの号令</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>自分の場にカードが3枚あり、『アルビダの号令』をプレイしたとき、場に出すフォロワー2体は『アルビダの号令』をプレイしたプレイヤーが選択することはできますか？</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>はい。場のカードの枚数上限より多くカードを場に出す場合、そのスペルや能力をプレイしたプレイヤーが、どのカードを場に出すか選択することができます。</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/SVE_FAQ.xlsx
+++ b/docs/SVE_FAQ.xlsx
@@ -5688,8 +5688,6 @@
           <t>いいえ。非ターンプレイヤーが《Quick》を持つカードをプレイすることができるのは、ターンプレイヤーのフォロワーが攻撃を宣言したあとか、エンドフェイズにのみプレイすることができます。また、攻撃フォロワーの【攻撃時】能力や、「エンドフェイズが来たとき」能力、エンドフェイズに【守護】の能力でアクトするタイミングは《Quick》を持つカードのプレイより先なため、それらの能力より先に《Quick》を持つカードをプレイすることはできません。</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -5710,8 +5708,6 @@
           <t>いいえ。ターンプレイヤーが自分のターンに《Quick》を持つカードをプレイすることができるのは、《Quick》を持たないカードをプレイすることができるタイミングと同じです。</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -5732,8 +5728,6 @@
           <t>「：」より前にあるテキストはコストであり、コストは基本的に自分の領域やPP等からのみ支払うことができます。よって、相手の場のフォロワーを墓場に置くことはできず、能力が誘発した『ワードローブレイダー』は墓場に置くことができます。</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -5754,8 +5748,6 @@
           <t>いいえ。《ファンファーレ》や《ラストワード》といった自動能力にコストがある場合、そのコストを支払わないことで、誘発した能力をプレイしないことが選択できます。また、自動能力にコストがない場合、その能力は可能な限りプレイする必要があります。</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -5776,8 +5768,6 @@
           <t>いいえ。【コンボ_n】で数えることができるのはカードのプレイのみであり、能力のプレイは数えることができません。また、『フェアリープリンセス・アリア』の《ファンファーレ》能力で『フェアリー』を場に出す行為などの、そのカード自体をプレイせずにフォロワーが場に出たり、場にトークンが作成される場合は、それらはプレイではないため数えることができません。なお、EXエリアのカードをプレイした回数は【コンボ_n】でカードをプレイした回数に数えることができます。</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -5798,8 +5788,6 @@
           <t>いいえ。相手の場にフォロワーがない場合や、【オーラ】を持つフォロワーしかなければプレイすることはできず。コストを支払いこのアミュレットを墓場に置くこともできません。また、相手の場にアクト状態の【オーラ】を持たないフォロワーがある場合、そのフォロワーを選んでこの能力をプレイすることができます。その場合、選ばれたフォロワーは状態が変わることなく、アクト状態のままとなります。</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -5820,8 +5808,6 @@
           <t>いいえ。スペルのテキストに「選ぶ」という指示がある場合、目標に選ぶことができるカードがなければ、そのカードをプレイすることはできず、コストを支払うこともできません。</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -5842,8 +5828,6 @@
           <t>いいえ。相手のエボルヴフォロワーをEXエリアに置く場合、進化する前のフォロワーはEXエリアに置かれ、進化した後のエボルヴフォロワーはエボルヴデッキ置き場に表向きで置かれます。</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -5864,8 +5848,6 @@
           <t>フォロワーへの攻撃中に攻撃目標が場を離れた場合、新たな攻撃目標を決めることはできず、攻撃によってアクトしたままとなり、ダメージはどこにも与えません。また、攻撃中のフォロワーや攻撃目標のフォロワーが場を離れていても、引き続き《Quick》を持つカードをプレイすることができます。</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -5886,8 +5868,6 @@
           <t>いいえ。自分の場の妖精・トークンのみを《攻撃力》+1/《体力》+1します。</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -5908,8 +5888,6 @@
           <t>はい。1枚引きます。その場合、手札の枚数が再び上限を超過するため、改めて手札が7枚になるように捨てる必要があります。</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -5930,8 +5908,6 @@
           <t>はい。トークンは一度墓場に置かれるため、自分の場のトークンを含めたカード4枚を墓場に置き、コストを-9することができます。</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -5952,8 +5928,6 @@
           <t>はい。【守護】を持ちます。</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -5974,8 +5948,6 @@
           <t>はい。『ゴーレムプロテクション』をプレイする際にPPや【土の秘術】でのコストを支払うため、先にアミュレットが墓場に置かれ、『ゴーレムプロテクション』の効果で『防御型ゴーレム』が2体場に出ます。その後、ゴーレム・フォロワーすべてを《攻撃力》+1/《体力》+1します。</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -5996,8 +5968,6 @@
           <t>はい。場のカードの枚数上限より多くカードを場に出す場合、そのスペルや能力をプレイしたプレイヤーが、どのカードを場に出すか選択することができます。</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/SVE_FAQ.xlsx
+++ b/docs/SVE_FAQ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F275"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3402,9 +3402,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>「変身する」とは、その能力で選んだトークンをゲームから取り除き、取り除いた枚数と同数、別のトークンを同じ領域に作成することを指します。</t>
-        </is>
-      </c>
+          <t>「変身する」とは、その能力で選んだカードをゲームから取り除き、取り除いた枚数と同数、別のトークンを同じ領域に作成することを指します。</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5968,6 +5970,1066 @@
           <t>はい。場のカードの枚数上限より多くカードを場に出す場合、そのスペルや能力をプレイしたプレイヤーが、どのカードを場に出すか選択することができます。</t>
         </is>
       </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>クリスタリアプリンセス・ティア</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>このフォロワー以外の能力で場に出た『クリスタリア・イヴ』は、このフォロワーの能力で目標に選ぶことはできますか？</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>はい。目標に選ぶことができます</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>古き森の白狼</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ラストワード》能力でデッキの上から見た4枚の中に《エルフ》フォロワーがあるとき、そのフォロワーを場に出さないことを選ぶことはできますか？</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>はい。場に出さないことを選ぶことができます。</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>エルフの少女・リザ</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>このフォロワーが自分の場にあり、相手が『ファイアーチェイン』で2体以上のフォロワーを選んでプレイしたとき、選ばれたフォロワーへのダメージはそれぞれ-1しますか？</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>はい。-1します。</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>エルフナイト・シンシア</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>このフォロワーの【攻撃時】能力のコストでEXエリアのカードを消滅するとき、相手のEXエリアのカードを消滅させることはできますか？</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>いいえ。コストは自分の領域のカードやPPなどでしか支払うことができないため、消滅させることはできません。</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>エルフの弓術</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>相手の場にフォロワーがないとき、このスペルをプレイすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>はい。2体まで選ぶとき、0体を選ぶことができるため、プレイすることができます。</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>レヴィオンセイバー・アルベール</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>このフォロワーが自分の場に2体あり、それらが攻撃したとき、【攻撃時】能力はそれぞれ1回ずつ誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>はい。【攻撃時】能力はそれぞれ1ターンに1回ずつ誘発します。</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>レヴィオンセイバー・アルベール</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>交戦ダメージとは何ですか？</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>交戦ダメージとは、攻撃フォロワーと攻撃目標のフォロワーが交戦状態のときに、それらのフォロワーが互いに与える攻撃力に等しいダメージのことを指します。</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>アレキサンダー</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>このフォロワーが相手のリーダーに攻撃したとき、このフォロワーの「自分のターン中、これが交戦ダメージを与えたとき、これをスタンドする。」能力は誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>いいえ。攻撃フォロワーが相手のリーダーへ攻撃したときに発生するダメージは交戦ダメージではないため、このフォロワーをスタンドすることはできません。</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>サムライ</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>このフォロワーの能力で付与された【疾走】と【必殺】は、このフォロワーが場を離れるまで持ち続けますか？</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>はい。持ち続けます。</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>次元の魔女・ドロシー</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>このフォロワーが場にあり、自分の墓場のカードが《ウィッチ》フォロワー10枚のみのとき、【スペルチェイン_10】の条件を満たすことはできますか？</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>はい。【スペルチェイン_10】を満たすことができます。</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>次元の魔女・ドロシー</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》能力でEXエリアにカードを置くとき、EXエリアの上限になる前にカードを置くことを止めることはできますか？</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>いいえ。必ずEXエリアの上限になるまでデッキの上からカードを置く必要があります。</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>次元の魔女・ドロシー</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》能力でEXエリアにカードを置く際、EXエリアの上限になる前に自分のデッキが0枚になったとき、自分はゲームに敗北しますか？</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>いいえ。デッキが0枚の場合、EXエリアにはカードを置かず、自分はゲームには敗北しません。その後、デッキが0枚で自分がカードを引くとき、自分はゲームに敗北します。</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>レヴィオンデューク・ユリウス</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>《Q》とはなんですか？</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>《Q》とは、特定の能力が《Quick》と同様のタイミングでプレイできることを示すアイコンです。
+《Q》を持つ能力は、《Quick》を持つカードと同様に自分のターンのメインフェイズに加え、相手のターンに相手のフォロワーが攻撃してきたときや、相手のエンドフェイズにプレイすることができます。</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>レヴィオンデューク・ユリウス</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>《Q》の能力を持つフォロワーやアミュレットは、自分のターンのメインフェイズに加え、相手のターンに相手のフォロワーが攻撃してきたときや、相手のエンドフェイズにプレイし、場に出すことはできますか？</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>いいえ。《Q》は能力が持つアイコンであり、カード自体が《Quick》を持っているわけではないため、フォロワーやアミュレット自体は《Quick》と同様のタイミングではプレイできません。
+《Q》を持つ能力は、その能力がプレイできる領域で《Quick》と同様のタイミングで起動することができます。</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>プリンセスマナリア・アン</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>自分の場に『マナリアドラコ・グレア』が2体いるとき、このフォロワーをプレイする際のコストは-4しますか？</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>いいえ。自分の場に『マナリアドラコ・グレア』が2体以上いる場合でも、このフォロワーをプレイする際のコストは-2となります。</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>マナリアドラコ・グレア</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>自分の場に『プリンセスマナリア・アン』が2体いるとき、このフォロワーをプレイする際のコストは-4しますか？</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>いいえ。自分の場に『プリンセスマナリア・アン』が2体以上いる場合でも、このフォロワーをプレイする際のコストは-2となります。</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>白霜の風</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>このスペルで相手のフォロワーを選ぶ際、【スペルチェイン_10】の条件を満たしているとき、このスペルは相手のエボルヴフォロワーを選ぶことはできますか？</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>いいえ。【スペルチェイン_10】の条件を満たしているかどうかに関わらず、相手の進化していないフォロワーのみを選ぶことができます。</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>デュアルウィッチ・レミラミ</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>【スタック】を持ち、スタックカウンターが1つ置かれたアミュレット1枚を含めたカードが自分の場に5枚あり、このフォロワーの【進化時】能力をプレイしたとき、『攻撃型ゴーレム』は場に出ますか？</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>はい。能力をプレイするより先にコストが支払われ、かつスタックカウンターが0となったアミュレットが墓場に置かれるため、自分の場は上限ではなくなり『攻撃型ゴーレム』は場に出ます。</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>連続実験</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2つ以上の選択肢をチョイスするとき、1つもチョイスしないことを選択することはできますか？</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>いいえ。必ず1つ以上チョイスする必要があります。</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>連続実験</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2つ以上の選択肢をチョイスするとき、１つの選択肢を2回以上チョイスすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>いいえ。1つの選択肢を2回以上チョイスすることはできません。</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>インペリアルドラグーン</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>相手の場にフォロワーがないとき、このフォロワーの《ファンファーレ》能力をプレイせず、手札を捨てないことは選択できますか？</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>いいえ。このフォロワーの《ファンファーレ》能力はコストが無く、プレイしないことを選択できないため、必ず手札を捨てる必要があります。</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>竜呼びの笛</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>このアミュレットの《ファンファーレ》能力は、《コスト3》を支払わず、プレイしないことを選択することはできますか？</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>はい。《ファンファーレ》能力のコストを支払わすに、能力をプレイしないことを選択できます。</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>竜呼びの笛</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>手札がないとき、このアミュレットの《起動》能力で『ヘルフレイムドラゴン』1枚をEXエリアに置くことはできますか？</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>いいえ。能力のコストを支払うことができないため、『ヘルフレイムドラゴン』をEXエリアに置くことはできません。</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>竜の闘気</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>自分のPP最大値を+1したとき、自分の残りPPは+1しますか？</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>いいえ。自分の残りPPは+1しません。</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>連なる咆哮</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>このアミュレットが自分の場に2枚あり、自分の場に『ドラゴン』が出たとき、このアミュレットの能力はそれぞれ誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>はい。それぞれ1ターンに1度ずつ能力が誘発します。</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>ジークフリート</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>このフォロワーの能力は、元々の《体力》の数値が4以上かつ、ダメージなどにより現状の《体力》が3以下のフォロワーを選ぶことができますか？</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>はい。現状の《体力》を参照するため、選ぶことができます。</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>変異の巨竜</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>このフォロワーの能力は、相手のEXエリアのカードを選ぶことはできますか？</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>はい。選ぶことができます。</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>竜巫女の儀式</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>自分のエンドフェイズに手札の上限枚数となるようにカードを捨てたとき、このアミュレットの「自分のエンドフェイズが来たとき～」の能力はプレイしますか？</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>いいえ。手札の上限枚数となるようにカードを捨てる行為は、「自分のエンドフェイズが来たとき～」の誘発のタイミングよりも後に行うため、条件を満たすことはできず、プレイしません。</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>ドラゴンテイマー</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>このフォロワーの能力で墓場のカードを選ぶとき、このフォロワーの能力のコストで捨てたカードを選ぶことはできますか？</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>いいえ。コストを支払う前に目標を選ぶ必要があるため、選ぶことはできません。</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>吸血姫・ヴァンピィ</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>このフォロワーが場にあり、新たに『フォレストバット』1体が場に出たとき、このフォロワーは《攻撃力》+1/《体力》+1しますか？</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>いいえ。このフォロワーの《ファンファーレ》能力をプレイしたときに既に場にある『フォレストバット』の数のみを参照するため、新たに『フォレストバット』1体が場に出た場合、このフォロワーは《攻撃力》+1/《体力》+1しません。</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>ラプラスの魔 ラプラス・ダークネス</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>カードの名前が2つありますが、これは何ですか？</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>名前が2つあるカードには、カード名とコラボ名が存在します。
+名前が2つあるカードはルール上、上側に書かれたカード名のカードとして扱います。
+特定のカード名を参照するカードや能力をプレイする際、これらのカードは上側に書かれたカード名を参照します。</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>ソウルディーラー</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>このフォロワーの【進化時】能力で破壊した相手のフォロワーの《攻撃力》が増減していたとき、Xは増減後の《攻撃力》の数値ですか？</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>はい。その通りです。</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>冥守の戦士・カムラ</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ラストワード》能力で破壊した相手のフォロワーの《攻撃力》が増減していたとき、Xは増減後の《攻撃力》の数値ですか？</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>はい。その通りです。</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>アザゼル</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>プレイヤーが自身のカードを捨てるとき、どのような方法で捨てるカードをランダムに選択しますか？</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>ダイスロールなど、無作為な方法で選択します。</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>アザゼル</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>相手のリーダーの《体力》が9以下のとき、このフォロワーの【進化時】能力で相手の《体力》は10になりますか？</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>はい。10になります。</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>享楽の悪魔</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>このフォロワーの【攻撃時】能力は、自分のリーダーにも1ダメージを与えますか？</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>はい。自分のリーダーにも1ダメージを与えます。</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>ボーンキマイラ</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>このフォロワーの【ネクロチャージ_7】の条件を満たしている状態で墓場のカードが移動し、墓場のカードが6枚以下になったとき、このフォロワーの【突進】と【必殺】は失われますか？</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>はい。失われます。</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>ヘヴンリーイージス</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>このフォロワーが進化するとき、「《コスト2》」と「手札3枚を捨てる」両方を支払う必要がありますか？</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>いいえ。このフォロワーが進化するとき、「《コスト2》」と「手札3枚を捨てる」はどちらかを支払えば進化することができます。</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>ヘヴンリーイージス</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>『夢兎の白兎』の「《起動》《コスト10》これを《アクト》墓場に置く：フォロワーすべてを消滅させる。」で、このフォロワーは消滅しますか？</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>はい。消滅します。</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>封じられし熾天使</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>『ダークオファリング』で自分の場のこのアミュレットを選んだとき、効果でこのアミュレットは破壊されますか？</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>いいえ。破壊されません。</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>カグヤ</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>このフォロワーが自分の場にあり、アミュレットが2枚同時に自分の場に出たとき、このフォロワーの「自分の場にアミュレットが出たとき～」の能力は2回誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>はい。場に出たアミュレットの数と同数回誘発します。</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>エイラの祈祷</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>このアミュレットが自分の場に2枚あり、自分のリーダーの《体力》を＋したとき、このアミュレットの能力はそれぞれ誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>はい。それぞれ1ターンに1度ずつ能力が誘発します。</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>サファイアプリースト</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>自分のフォロワーが攻撃し、その攻撃フォロワーが《Quick》を持つカードや能力によって場を離れたとき、その攻撃はこのフォロワーの能力の条件に数えることはできますか？</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>はい。攻撃している間にその攻撃フォロワーが場を離れても、その攻撃を数えることができます。</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>スレッジエクソシスト</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》能力は、《コスト2》を支払わず、プレイしないことを選択することはできますか？</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>はい。《ファンファーレ》能力のコストを支払わすに、能力をプレイしないことを選択できます。</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>エメラルドメイデン</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》能力で【守護】を持つ自分のフォロワーを数えるとき、このフォロワーを数えることはできますか？</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>いいえ。このフォロワー以外の【守護】を持つフォロワーのみを数えます。</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>アークエンジェル・レイナ</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>このフォロワーの【進化時】能力で裏向きにしたエボルヴデッキのエボルヴフォロワーは、《進化》で再度使用することはできますか？</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>はい。表向きから裏向きにしたエボルヴデッキのエボルヴフォロワーは、《進化》で再度使用することができます。</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>氷獄の呼び声</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>相手の場にフォロワーがないとき、このスペルをプレイし自分のデッキからニュートラルフォロワーを探して手札に加えることはできますか？</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>いいえ。相手の場にいるフォロワーを選ぶことができないため、このスペルをプレイすることはできません。</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>ドラゴウェポン</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>タイプを持つとは何ですか？</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>タイプを持つとは、そのカードが持つ元々のタイプに加え、効果によって新たにタイプが追加されることを示します。</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/SVE_FAQ.xlsx
+++ b/docs/SVE_FAQ.xlsx
@@ -3405,8 +3405,6 @@
           <t>「変身する」とは、その能力で選んだカードをゲームから取り除き、取り除いた枚数と同数、別のトークンを同じ領域に作成することを指します。</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5990,8 +5988,6 @@
           <t>はい。目標に選ぶことができます</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6012,8 +6008,6 @@
           <t>はい。場に出さないことを選ぶことができます。</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6034,8 +6028,6 @@
           <t>はい。-1します。</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6056,8 +6048,6 @@
           <t>いいえ。コストは自分の領域のカードやPPなどでしか支払うことができないため、消滅させることはできません。</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6078,8 +6068,6 @@
           <t>はい。2体まで選ぶとき、0体を選ぶことができるため、プレイすることができます。</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6100,8 +6088,6 @@
           <t>はい。【攻撃時】能力はそれぞれ1ターンに1回ずつ誘発します。</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6122,8 +6108,6 @@
           <t>交戦ダメージとは、攻撃フォロワーと攻撃目標のフォロワーが交戦状態のときに、それらのフォロワーが互いに与える攻撃力に等しいダメージのことを指します。</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6144,8 +6128,6 @@
           <t>いいえ。攻撃フォロワーが相手のリーダーへ攻撃したときに発生するダメージは交戦ダメージではないため、このフォロワーをスタンドすることはできません。</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6166,8 +6148,6 @@
           <t>はい。持ち続けます。</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6188,8 +6168,6 @@
           <t>はい。【スペルチェイン_10】を満たすことができます。</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6210,8 +6188,6 @@
           <t>いいえ。必ずEXエリアの上限になるまでデッキの上からカードを置く必要があります。</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6232,8 +6208,6 @@
           <t>いいえ。デッキが0枚の場合、EXエリアにはカードを置かず、自分はゲームには敗北しません。その後、デッキが0枚で自分がカードを引くとき、自分はゲームに敗北します。</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -6255,8 +6229,6 @@
 《Q》を持つ能力は、《Quick》を持つカードと同様に自分のターンのメインフェイズに加え、相手のターンに相手のフォロワーが攻撃してきたときや、相手のエンドフェイズにプレイすることができます。</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -6278,8 +6250,6 @@
 《Q》を持つ能力は、その能力がプレイできる領域で《Quick》と同様のタイミングで起動することができます。</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -6300,8 +6270,6 @@
           <t>いいえ。自分の場に『マナリアドラコ・グレア』が2体以上いる場合でも、このフォロワーをプレイする際のコストは-2となります。</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -6322,8 +6290,6 @@
           <t>いいえ。自分の場に『プリンセスマナリア・アン』が2体以上いる場合でも、このフォロワーをプレイする際のコストは-2となります。</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -6344,8 +6310,6 @@
           <t>いいえ。【スペルチェイン_10】の条件を満たしているかどうかに関わらず、相手の進化していないフォロワーのみを選ぶことができます。</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -6366,8 +6330,6 @@
           <t>はい。能力をプレイするより先にコストが支払われ、かつスタックカウンターが0となったアミュレットが墓場に置かれるため、自分の場は上限ではなくなり『攻撃型ゴーレム』は場に出ます。</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -6388,8 +6350,6 @@
           <t>いいえ。必ず1つ以上チョイスする必要があります。</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -6410,8 +6370,6 @@
           <t>いいえ。1つの選択肢を2回以上チョイスすることはできません。</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -6432,8 +6390,6 @@
           <t>いいえ。このフォロワーの《ファンファーレ》能力はコストが無く、プレイしないことを選択できないため、必ず手札を捨てる必要があります。</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -6454,8 +6410,6 @@
           <t>はい。《ファンファーレ》能力のコストを支払わすに、能力をプレイしないことを選択できます。</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -6476,8 +6430,6 @@
           <t>いいえ。能力のコストを支払うことができないため、『ヘルフレイムドラゴン』をEXエリアに置くことはできません。</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -6498,8 +6450,6 @@
           <t>いいえ。自分の残りPPは+1しません。</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -6520,8 +6470,6 @@
           <t>はい。それぞれ1ターンに1度ずつ能力が誘発します。</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -6542,8 +6490,6 @@
           <t>はい。現状の《体力》を参照するため、選ぶことができます。</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -6564,8 +6510,6 @@
           <t>はい。選ぶことができます。</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -6586,8 +6530,6 @@
           <t>いいえ。手札の上限枚数となるようにカードを捨てる行為は、「自分のエンドフェイズが来たとき～」の誘発のタイミングよりも後に行うため、条件を満たすことはできず、プレイしません。</t>
         </is>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -6608,8 +6550,6 @@
           <t>いいえ。コストを支払う前に目標を選ぶ必要があるため、選ぶことはできません。</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -6630,8 +6570,6 @@
           <t>いいえ。このフォロワーの《ファンファーレ》能力をプレイしたときに既に場にある『フォレストバット』の数のみを参照するため、新たに『フォレストバット』1体が場に出た場合、このフォロワーは《攻撃力》+1/《体力》+1しません。</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr"/>
-      <c r="F305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -6654,8 +6592,6 @@
 特定のカード名を参照するカードや能力をプレイする際、これらのカードは上側に書かれたカード名を参照します。</t>
         </is>
       </c>
-      <c r="E306" t="inlineStr"/>
-      <c r="F306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -6676,8 +6612,6 @@
           <t>はい。その通りです。</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr"/>
-      <c r="F307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -6698,8 +6632,6 @@
           <t>はい。その通りです。</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr"/>
-      <c r="F308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -6720,8 +6652,6 @@
           <t>ダイスロールなど、無作為な方法で選択します。</t>
         </is>
       </c>
-      <c r="E309" t="inlineStr"/>
-      <c r="F309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -6742,8 +6672,6 @@
           <t>はい。10になります。</t>
         </is>
       </c>
-      <c r="E310" t="inlineStr"/>
-      <c r="F310" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -6764,8 +6692,6 @@
           <t>はい。自分のリーダーにも1ダメージを与えます。</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr"/>
-      <c r="F313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -6786,8 +6712,6 @@
           <t>はい。失われます。</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr"/>
-      <c r="F314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -6808,8 +6732,6 @@
           <t>いいえ。このフォロワーが進化するとき、「《コスト2》」と「手札3枚を捨てる」はどちらかを支払えば進化することができます。</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr"/>
-      <c r="F315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -6830,8 +6752,6 @@
           <t>はい。消滅します。</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr"/>
-      <c r="F316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -6852,8 +6772,6 @@
           <t>いいえ。破壊されません。</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr"/>
-      <c r="F317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -6874,8 +6792,6 @@
           <t>はい。場に出たアミュレットの数と同数回誘発します。</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr"/>
-      <c r="F318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -6896,8 +6812,6 @@
           <t>はい。それぞれ1ターンに1度ずつ能力が誘発します。</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr"/>
-      <c r="F319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -6918,8 +6832,6 @@
           <t>はい。攻撃している間にその攻撃フォロワーが場を離れても、その攻撃を数えることができます。</t>
         </is>
       </c>
-      <c r="E320" t="inlineStr"/>
-      <c r="F320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -6940,8 +6852,6 @@
           <t>はい。《ファンファーレ》能力のコストを支払わすに、能力をプレイしないことを選択できます。</t>
         </is>
       </c>
-      <c r="E321" t="inlineStr"/>
-      <c r="F321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -6962,8 +6872,6 @@
           <t>いいえ。このフォロワー以外の【守護】を持つフォロワーのみを数えます。</t>
         </is>
       </c>
-      <c r="E322" t="inlineStr"/>
-      <c r="F322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -6984,8 +6892,6 @@
           <t>はい。表向きから裏向きにしたエボルヴデッキのエボルヴフォロワーは、《進化》で再度使用することができます。</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr"/>
-      <c r="F323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -7006,8 +6912,6 @@
           <t>いいえ。相手の場にいるフォロワーを選ぶことができないため、このスペルをプレイすることはできません。</t>
         </is>
       </c>
-      <c r="E324" t="inlineStr"/>
-      <c r="F324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7028,8 +6932,6 @@
           <t>タイプを持つとは、そのカードが持つ元々のタイプに加え、効果によって新たにタイプが追加されることを示します。</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr"/>
-      <c r="F325" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/SVE_FAQ.xlsx
+++ b/docs/SVE_FAQ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F325"/>
+  <dimension ref="A1:F338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6933,6 +6933,313 @@
         </is>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>【指定攻撃】を持つフォロワーは、相手の【守護】を持つアクト状態のフォロワーを無視して相手の他のフォロワーに攻撃できますか？</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>いいえ。必ずアクト状態の【守護】を持つフォロワーを選ぶ必要があります。</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>アーチャー</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>『エンシェントエルフ』の《ファンファーレ》能力のコストで『アーチャー』を選択した場合、『アーチャー』の能力はプレイしますか？</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>はい。一度誘発した自動能力は、そのカードが場を離れても能力をプレイできます。</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>クラフトウォーロック</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>『クラフトウォーロック(EVOLVE)』の能力で「【スタック】+1する」は自分の【スタック】を持つアミュレット全ての【スタック】を+できますか？</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">いいえ。【スタック】を持つアミュレット1枚を選択し、そのカードのスタックカウンターを+1します。
+</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【スタック】を持つアミュレットを『エクスキューション』で破壊した場合、【スタック】能力でスタックカウンターを取り除くことで、場に残せますか？
+</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">はい。自分や相手のカード問わず、場を離れる時に【スタック】能力でスタックカウンターを取り除くことで場に残せます。
+</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>次元の魔女・ドロシー</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">『次元の魔女・ドロシー(EVOLVE)』の【進化時】能力でコストが-5された『次元の超越』をプレイする際、さらに『次元の超越』の能力でコストを7にする場合、コストは7から-5をし、コスト2でプレイできますか？
+</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">はい。コスト2でプレイすることができます。
+</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【進化時】能力が複数あるカードに進化した場合、その能力は全てプレイしますか？
+</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">はい。【進化時】能力が複数ある場合でも、全てプレイします。
+</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>裁きの悪魔</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">このフォロワーが相手のフォロワーと交戦した際に、お互いのフォロワーが破壊された場合、このフォロワーの能力はプレイできますか？
+</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">はい。交戦でお互いが破壊された場合でも「破壊されたとき」を満たしているため、プレイすることができます。
+</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>享楽の悪魔</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">このフォロワーの能力は、【真紅】状態でない場合でも手札を1枚捨てますか？
+</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">いいえ。「【真紅】状態なら」の以降の能力は、条件を満たさない場合、プレイできません。
+</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>エイラの祈祷</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">このアミュレットの能力は相手のターンでもプレイできますか？
+</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">はい。相手のターンでも条件を満たせば、能力はプレイできます。
+</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>神域の守護者</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">このアミュレットの能力は相手のターンでもプレイできますか？
+</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">いいえ。このアミュレットの能力は自分のターンのみプレイできます。
+</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>エイラの祈祷</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">『ダークオファリング』の能力で『エイラの祈祷』を選択し、そのカードを破壊して、リーダーの《体力》を+した場合、『エイラの祈祷』の能力はプレイできますか？
+</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">いいえ。『ダークオファリング』で自分のリーダーを《体力》+3したとき、『エイラの祈祷』が場にないため「リーダーの《体力》を+したとき」の能力はプレイできません。
+</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>ダークエンジェル・オリヴィエ</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">先攻のプレイヤーが『ダークエンジェル・オリヴィエ』の能力でEPを+1できますか？
+</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">はい。先攻後攻問わず、全てのプレイヤーは能力でEPを得ます。
+</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>ダークエンジェル・オリヴィエ</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EPが3ある状態で『ダークエンジェル・オリヴィエ』の能力でEPを+1できますか？
+</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">はい。EPは上限がないため、EPが3ある場合も新たにEPを得ます。
+</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/SVE_FAQ.xlsx
+++ b/docs/SVE_FAQ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F338"/>
+  <dimension ref="A1:F345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6952,8 +6952,6 @@
           <t>いいえ。必ずアクト状態の【守護】を持つフォロワーを選ぶ必要があります。</t>
         </is>
       </c>
-      <c r="E326" t="inlineStr"/>
-      <c r="F326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -6974,8 +6972,6 @@
           <t>はい。一度誘発した自動能力は、そのカードが場を離れても能力をプレイできます。</t>
         </is>
       </c>
-      <c r="E327" t="inlineStr"/>
-      <c r="F327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -6997,8 +6993,6 @@
 </t>
         </is>
       </c>
-      <c r="E328" t="inlineStr"/>
-      <c r="F328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7021,8 +7015,6 @@
 </t>
         </is>
       </c>
-      <c r="E329" t="inlineStr"/>
-      <c r="F329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7045,8 +7037,6 @@
 </t>
         </is>
       </c>
-      <c r="E330" t="inlineStr"/>
-      <c r="F330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -7069,8 +7059,6 @@
 </t>
         </is>
       </c>
-      <c r="E331" t="inlineStr"/>
-      <c r="F331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -7093,8 +7081,6 @@
 </t>
         </is>
       </c>
-      <c r="E332" t="inlineStr"/>
-      <c r="F332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -7117,8 +7103,6 @@
 </t>
         </is>
       </c>
-      <c r="E333" t="inlineStr"/>
-      <c r="F333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -7141,8 +7125,6 @@
 </t>
         </is>
       </c>
-      <c r="E334" t="inlineStr"/>
-      <c r="F334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -7165,8 +7147,6 @@
 </t>
         </is>
       </c>
-      <c r="E335" t="inlineStr"/>
-      <c r="F335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -7189,8 +7169,6 @@
 </t>
         </is>
       </c>
-      <c r="E336" t="inlineStr"/>
-      <c r="F336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -7213,8 +7191,6 @@
 </t>
         </is>
       </c>
-      <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -7237,8 +7213,148 @@
 </t>
         </is>
       </c>
-      <c r="E338" t="inlineStr"/>
-      <c r="F338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>リノセウス</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》能力は、自分がプレイした能力の回数も数えますか？</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>いいえ。このフォロワーの《ファンファーレ》能力で数えるのは、自分がプレイしたカードのみであるため、プレイした能力の回数を数えることはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>リノセウス</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》能力は、相手のプレイしたカードや能力も数えますか？</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>いいえ。このフォロワーの《ファンファーレ》能力で数えるのは、自分がプレイしたカードのみであるため、相手のプレイしたカードや能力を数えることはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>狂気の処刑人</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>相手の手札がない場合、このフォロワーの【進化時】能力で自分のリーダーに2ダメージを与えますか？</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>はい。相手の手札が0枚でも、このフォロワーの能力で自分のリーダーに2ダメージ与えます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>ヘヴンリーイージス</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>このカードは、スペルの能力で破壊されますか？</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>いいえ。スペルの能力で破壊されません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>ヘヴンリーイージス</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>『ダークオファリング』の能力でこのフォロワーを選んだとき、能力はプレイできますか？</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>はい。『ヘヴンリーイージス』は破壊されず、自分のリーダーは《体力》を+3して、1枚引きます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>ヘヴンリーイージス</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>このフォロワーを『ダークオファリング』の能力で選び、破壊することはできますか？</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>いいえ。このカードは『ダークオファリング』の能力によって選ぶことはできますが、破壊することはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>カグヤ</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">自分の手札にコスト3以下のアミュレットがある場合、このフォロワーの《ファンファーレ》能力で手札にあるアミュレットを場に出さないことはできますか？
+</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">はい。手札は非公開領域のため、手札に条件を満たすカードがあることは保証されないことから、『カグヤ』の《ファンファーレ》能力で場に出さないこともできます。
+</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/SVE_FAQ.xlsx
+++ b/docs/SVE_FAQ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F345"/>
+  <dimension ref="A1:F414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>A：はい。1枚引くことができます。その場合、手札が再び8枚以上となるため、改めて手札が7枚以下になるように捨てる必要があります。</t>
+          <t>はい。1枚引くことができます。その場合、手札が再び8枚以上となるため、改めて手札が7枚以下になるように捨てる必要があります。</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>バトルの準備</t>
+          <t>バトルの進行</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -6673,6 +6673,46 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>貴き血牙</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>お互いの場にカードが5枚ずつあるとき、【1】の選択肢をチョイスしてこのスペルをプレイすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>はい。『フォレストバット』が1体も場に出ない場合でも、【1】の選択肢をチョイスしてこのスペルをプレイすることができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>貴き血牙</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>自分の場に『フォレストバット』がないとき、【2】の選択肢をチョイスしてこのスペルをプレイすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>はい。自分の場に『フォレストバット』がない場合でも、【2】の選択肢をチョイスしてこのスペルをプレイすることができます。</t>
+        </is>
+      </c>
+    </row>
     <row r="313">
       <c r="A313" t="n">
         <v>312</v>
@@ -6989,8 +7029,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t xml:space="preserve">いいえ。【スタック】を持つアミュレット1枚を選択し、そのカードのスタックカウンターを+1します。
-</t>
+          <t>いいえ。【スタック】を持つアミュレット1枚を選択し、そのカードのスタックカウンターを+1します。</t>
         </is>
       </c>
     </row>
@@ -7005,14 +7044,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t xml:space="preserve">【スタック】を持つアミュレットを『エクスキューション』で破壊した場合、【スタック】能力でスタックカウンターを取り除くことで、場に残せますか？
-</t>
+          <t>【スタック】を持つアミュレットを『エクスキューション』で破壊した場合、【スタック】能力でスタックカウンターを取り除くことで、場に残せますか？</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t xml:space="preserve">はい。自分や相手のカード問わず、場を離れる時に【スタック】能力でスタックカウンターを取り除くことで場に残せます。
-</t>
+          <t>はい。自分や相手のカード問わず、場を離れる時に【スタック】能力でスタックカウンターを取り除くことで場に残せます。</t>
         </is>
       </c>
     </row>
@@ -7027,14 +7064,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t xml:space="preserve">『次元の魔女・ドロシー(EVOLVE)』の【進化時】能力でコストが-5された『次元の超越』をプレイする際、さらに『次元の超越』の能力でコストを7にする場合、コストは7から-5をし、コスト2でプレイできますか？
-</t>
+          <t>『次元の魔女・ドロシー(EVOLVE)』の【進化時】能力でコストが-5された『次元の超越』をプレイする際、さらに『次元の超越』の能力でコストを7にする場合、コストは7から-5をし、コスト2でプレイできますか？</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t xml:space="preserve">はい。コスト2でプレイすることができます。
-</t>
+          <t>はい。コスト2でプレイすることができます。</t>
         </is>
       </c>
     </row>
@@ -7049,14 +7084,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t xml:space="preserve">【進化時】能力が複数あるカードに進化した場合、その能力は全てプレイしますか？
-</t>
+          <t>【進化時】能力が複数あるカードに進化した場合、その能力は全てプレイしますか？</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t xml:space="preserve">はい。【進化時】能力が複数ある場合でも、全てプレイします。
-</t>
+          <t>はい。【進化時】能力が複数ある場合でも、全てプレイします。</t>
         </is>
       </c>
     </row>
@@ -7071,14 +7104,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t xml:space="preserve">このフォロワーが相手のフォロワーと交戦した際に、お互いのフォロワーが破壊された場合、このフォロワーの能力はプレイできますか？
-</t>
+          <t>このフォロワーが相手のフォロワーと交戦した際に、お互いのフォロワーが破壊された場合、このフォロワーの能力はプレイできますか？</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t xml:space="preserve">はい。交戦でお互いが破壊された場合でも「破壊されたとき」を満たしているため、プレイすることができます。
-</t>
+          <t>はい。交戦でお互いが破壊された場合でも「破壊されたとき」を満たしているため、プレイすることができます。</t>
         </is>
       </c>
     </row>
@@ -7093,14 +7124,12 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t xml:space="preserve">このフォロワーの能力は、【真紅】状態でない場合でも手札を1枚捨てますか？
-</t>
+          <t>このフォロワーの能力は、【真紅】状態でない場合でも手札を1枚捨てますか？</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t xml:space="preserve">いいえ。「【真紅】状態なら」の以降の能力は、条件を満たさない場合、プレイできません。
-</t>
+          <t>いいえ。「【真紅】状態なら」の以降の能力は、条件を満たさない場合、プレイできません。</t>
         </is>
       </c>
     </row>
@@ -7115,14 +7144,12 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t xml:space="preserve">このアミュレットの能力は相手のターンでもプレイできますか？
-</t>
+          <t>このアミュレットの能力は相手のターンでもプレイできますか？</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t xml:space="preserve">はい。相手のターンでも条件を満たせば、能力はプレイできます。
-</t>
+          <t>はい。相手のターンでも条件を満たせば、能力はプレイできます。</t>
         </is>
       </c>
     </row>
@@ -7137,14 +7164,12 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t xml:space="preserve">このアミュレットの能力は相手のターンでもプレイできますか？
-</t>
+          <t>このアミュレットの能力は相手のターンでもプレイできますか？</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t xml:space="preserve">いいえ。このアミュレットの能力は自分のターンのみプレイできます。
-</t>
+          <t>いいえ。このアミュレットの能力は自分のターンのみプレイできます。</t>
         </is>
       </c>
     </row>
@@ -7159,14 +7184,12 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t xml:space="preserve">『ダークオファリング』の能力で『エイラの祈祷』を選択し、そのカードを破壊して、リーダーの《体力》を+した場合、『エイラの祈祷』の能力はプレイできますか？
-</t>
+          <t>『ダークオファリング』の能力で『エイラの祈祷』を選択し、そのカードを破壊して、リーダーの《体力》を+した場合、『エイラの祈祷』の能力はプレイできますか？</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t xml:space="preserve">いいえ。『ダークオファリング』で自分のリーダーを《体力》+3したとき、『エイラの祈祷』が場にないため「リーダーの《体力》を+したとき」の能力はプレイできません。
-</t>
+          <t>いいえ。『ダークオファリング』で自分のリーダーを《体力》+3したとき、『エイラの祈祷』が場にないため「リーダーの《体力》を+したとき」の能力はプレイできません。</t>
         </is>
       </c>
     </row>
@@ -7181,14 +7204,12 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t xml:space="preserve">先攻のプレイヤーが『ダークエンジェル・オリヴィエ』の能力でEPを+1できますか？
-</t>
+          <t>先攻のプレイヤーが『ダークエンジェル・オリヴィエ』の能力でEPを+1できますか？</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t xml:space="preserve">はい。先攻後攻問わず、全てのプレイヤーは能力でEPを得ます。
-</t>
+          <t>はい。先攻後攻問わず、全てのプレイヤーは能力でEPを得ます。</t>
         </is>
       </c>
     </row>
@@ -7203,14 +7224,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t xml:space="preserve">EPが3ある状態で『ダークエンジェル・オリヴィエ』の能力でEPを+1できますか？
-</t>
+          <t>EPが3ある状態で『ダークエンジェル・オリヴィエ』の能力でEPを+1できますか？</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t xml:space="preserve">はい。EPは上限がないため、EPが3ある場合も新たにEPを得ます。
-</t>
+          <t>はい。EPは上限がないため、EPが3ある場合も新たにEPを得ます。</t>
         </is>
       </c>
     </row>
@@ -7345,16 +7364,1412 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t xml:space="preserve">自分の手札にコスト3以下のアミュレットがある場合、このフォロワーの《ファンファーレ》能力で手札にあるアミュレットを場に出さないことはできますか？
+          <t>自分の手札にコスト3以下のアミュレットがある場合、このフォロワーの《ファンファーレ》能力で手札にあるアミュレットを場に出さないことはできますか？</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>はい。手札は非公開領域のため、手札に条件を満たすカードがあることは保証されないことから、『カグヤ』の《ファンファーレ》能力で場に出さないこともできます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>《食事》能力とはなんですか？</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>《食事》能力とは、コストを支払いフォロワーを出走させる能力です。
+《食事》能力をプレイしたフォロワーはエボルヴデッキから『にんじん』を下に重ねることで出走し【突進】を持ちます。また、この時【出走時】の能力も誘発します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>出走したフォロワーは、進化することはできますか？</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>はい。そのフォロワーが《進化》能力を持つ場合、進化することができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>《進化》能力をプレイしたターンに、《食事》能力をプレイすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>いいえ。《食事》能力や《進化》能力は、合わせて１ターンに１回のみプレイできます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>《食事》能力のコストの支払いでPPを支払う場合、EPを使用することはできますか？</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>はい。《進化》能力と同様《食事》能力のコストを支払う際、EPを1つ使用して1PP分を支払うことができます。また、１回につき使えるEPは１つまでです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>バトルの進行</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>出走したフォロワーが場を離れるとき、そのフォロワーに重ねていた『にんじん』はどこに置かれますか？</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>フォロワーに重ねていた『にんじん』は、そのフォロワーが場を離れるとき、エボルヴデッキに表向きで置かれます。表向きで置かれている『にんじん』は《食事》能力をプレイする際にこのバトル中使用することはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>キーワード</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>【出走時】とはなんですか？</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>【出走時】とは、フォロワーが出走した際に誘発する能力です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>バトルの進行</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>バトルで使用するリーダーカードがクラスとタイトルを持つとき、使用するデッキがどちらで構築しているかを宣言する必要はありますか？</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>はい。使用するデッキが基準にしているクラスやタイトルは、バトルの準備時にリーダーカードを公開した際、対戦相手に宣言する必要があります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>バトルの進行</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>《食事》能力で『にんじん』を出走するフォロワーに重ねることは、カードのプレイになりますか？</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>いいえ。『にんじん』を出走するフォロワーに重ねることは、カードをプレイすることにはなりません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>バトルの進行</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>《食事》能力でEPを使用する場合、ウマ娘 プリティーダービーをタイトルに持たないEPを使用することはできますか？</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>はい。EPはタイトルに関係なく、《食事》能力のコストの支払いに使用することができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>スマートファルコン</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>このフォロワーの能力で自分のエボルヴフォロワーや出走しているフォロワーを手札に戻した場合、「戻した枚数」は2枚として数えますか？</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>いいえ。このフォロワーの能力でエボルヴフォロワーや出走しているフォロワーを手札に戻した場合、「戻した枚数」は1枚として数えます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>スマートファルコン</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》のコストで相手の場のカードを手札に戻すことはできますか？</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>いいえ。自分の場のカードのみを手札に戻すことができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>ゴールドシチー</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>このフォロワーの能力で、お互いの場のカードが8枚以上ある状態から7枚以下になった時に【疾走】は失いますか？</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>はい、失います。</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>ゴールドシチー</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>このフォロワーが自身の能力で【疾走】を持ち、場に出たターンに攻撃を宣言しました。その時なんらかの理由で場のカードが7枚以下になり【疾走】を失った場合、その攻撃は行われますか？</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>はい。攻撃している途中で【疾走】を失っていても、その攻撃は行われます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>はやい！うまい！はやい！</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>【1】の選択肢をチョイスし、自分のデッキから『ゴールドシチー』を探して手札に加えることはできますか？</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>いいえ。場以外の領域では「お互いの場のカードが8枚以上ある限り、これは【疾走】を持つ。」の効果は有効ではなく『ゴールドシチー』は【疾走】を持っていないので、デッキから探して手札に加えることはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>はやい！うまい！はやい！</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>【2】の選択肢をチョイスし、始めから【疾走】をもつフォロワーではなく『ゴールドシチー』のように【疾走】を能力によって持ったフォロワーを選ぶことはできますか？</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>はい、選べます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>マーベラスサンデー</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》のコストで相手の場のカードを手札に戻すことはできますか？</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>いいえ。自分の場のカードのみを手札に戻すことができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>ユキノビジン</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》のコストで相手の場のカードを手札に戻すことはできますか？</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>いいえ。自分の場のカードのみを手札に戻すことができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>アイネスフウジン</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>このフォロワーの能力で、墓場やEXエリアのカードを手札に戻すことはできますか？</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>いいえ。このフォロワーの能力では自分の場の他のカードを手札に戻すことができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>トウカイテイオー</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>自分の場にフォロワーがいない状態で『トウカイテイオー』をプレイしました。このフォロワーの《ファンファーレ》で相手のフォロワーに2ダメージ与えることはできますか？</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>はい。このフォロワーの能力にある「自分の場のフォロワーの数」はプレイした『トウカイテイオー』自身も含むので、相手のフォロワーに2ダメージ与えます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>エアグルーヴ</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>このフォロワーの【出走時】能力で目標に選んだフォロワーは、相手の場のアクトしているフォロワーを攻撃することはできますか？</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>いいえ。相手のリーダーや相手のフォロワーを攻撃することはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>エアグルーヴ</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>このフォロワーの能力でスタンドしたフォロワーは、コストに「これを《アクト》」を持つ能力を使うことはできますか？</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>はい。能力のコストの「これを《アクト》」は攻撃ではないため、使うことができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>アグネスタキオン</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>《食事》能力で『にんじん』を出走するフォロワーに重ねることは、スペルのプレイになりますか？</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>いいえ。『にんじん』を出走するフォロワーに重ねることは、スペルをプレイすることにはなりません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>アグネスタキオン</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>相手のターン中に自分がクイックでスペルをプレイした場合、このフォロワーの能力は誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>はい、誘発します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>アグネスタキオン</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>自分の場にこのフォロワーが2体いて、自分がスペルをプレイしたとき、このフォロワーの「自分がスペルをプレイしたとき、相手のフォロワー1体を選ぶ。それは《攻撃力》-1/《体力》-1する。」はそれぞれ誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>はい、誘発します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>アグネスタキオン</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>《食事》能力で『にんじん』を出走するフォロワーに重ねることは、スペルのプレイになりますか？</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>いいえ。『にんじん』を出走するフォロワーに重ねることは、スペルをプレイすることにはなりません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>アグネスタキオン</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>相手のターン中に自分がクイックでスペルをプレイした場合、このフォロワーの能力は誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>はい、誘発します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>アグネスタキオン</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>自分の場にこのフォロワーが2体いて、自分がスペルをプレイしたとき、このフォロワーの「自分がスペルをプレイしたとき、相手のフォロワー1体を選ぶ。それは《攻撃力》-1/《体力》-1する。」はそれぞれ誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>はい、誘発します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>ダイワスカーレット</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>このフォロワーの「このターン中に3枚目のスペルなら、」は、このフォロワーが場にいる前にプレイされたスペルも数えますか？</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>はい。このターン中にプレイしたスペルの枚数を数える場合、このフォロワーが場に出る前にプレイしたスペルの枚数も数えます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>ダイワスカーレット</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>相手のターン中に自分がクイックでウマ娘・スペルをプレイする際、それが1枚目のウマ娘・スペルなら、このフォロワーの能力でコストを-1しますか？</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>はい、コストを-1します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>ダイワスカーレット</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>このフォロワーが自分の場に2体いて、自分がこのターン中に1枚目のウマ娘・スペルをプレイする際、コストを-2しますか？</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>はい、コストを-2します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>ウオッカ</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>このフォロワーが自分の場に2体いて自分がスペルをプレイしたとき、このフォロワーの能力はそれぞれ誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>はい。それぞれ1ターンに1回ずつ能力が誘発します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>ウオッカ</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>自分のターンだけでなく、相手のターン中に自分がクイックでスペルをプレイした場合、このフォロワーの能力は誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>はい、誘発します。自分のターンだけでなく相手のターンでもそれぞれのターンごとに1回ずつ能力を誘発させることができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>ウオッカ</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>自分の場に『ダイワスカーレット』が2体いるとき、このフォロワーをプレイする際のコストは-4しますか？</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>いいえ、コストは-2となります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>ゼンノロブロイ</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>1体のフォロワーが3回出走した場合、このフォロワーの「自分の他のフォロワーが出走したとき～」の能力は3回誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>はい。3回誘発します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>アドマイヤベガ</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>自分のEXエリアが5枚あり、このフォロワーの能力で手札のスペルを選んだとき、選んだスペルはコスト0で手札からプレイすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>いいえ。選んだカードをEXエリアに置かない場合、コスト0でプレイすることはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>ナカヤマフェスタ</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>自分の手札が0枚のとき、このフォロワーの《ファンファーレ》能力は使うことはできますか？</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>はい。自分の手札が0枚のときでも《ファンファーレ》能力をプレイすることができ、相手のリーダーと相手のフォロワーに5ダメージを与えます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>スペシャルウィーク</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》能力で自分のデッキから見たカードの中にウマ娘・カードがあるとき、それを手札に加えないことを選択できますか？</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>はい。選択できます。
+その場合カードは公開せず、デッキの上に戻します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>オグリキャップ</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>このフォロワーが既に出走していたとき「《食事》《コスト2》：これは2回出走する。」をプレイすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>いいえ。一度出走したフォロワーは再び《食事》能力をプレイすることはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>オグリキャップ</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>このフォロワーが2回出走したとき、このフォロワーの【出走時】能力は2回誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>はい。【出走時】能力が2回誘発します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>オグリキャップ</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>このフォロワーが3回出走する場合、エボルヴデッキに『にんじん』は3枚必要ですか？</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>はい。エボルヴデッキに『にんじん』が3枚ない場合「《食事》《コスト3》：これは3回出走する。」のコストを支払うことができず、能力をプレイすることができません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>キングヘイロー</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>自分のEXエリアが3枚のとき、このフォロワーの能力で【1】の選択肢をチョイスすることはできますか？</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>はい。チョイスすることができます。その場合「自分のデッキの上1枚をEXエリアに置く」を2回くり返します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>キングヘイロー</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>このフォロワーの能力「これを3回くり返す。」はどの処理を3回くり返しますか？</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>「自分のデッキの上1枚をEXエリアに置く。」を3回くり返します。「下記から1つチョイスする。」は含まないのでくり返しません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>あなたにささげる</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>このスペルで『セイウンスカイ』を目標に選んだとき、『セイウンスカイ』は「それは《攻撃力》+1」も解決しますか？</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>はい。『セイウンスカイ』を選んだ場合、「それは《攻撃力》+1」を解決し、1枚引き、その後に『《攻撃力》+1/《体力》+1」も解決します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>あなたにささげる</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>このスペルの能力「それが『セイウンスカイ』なら、」は、このスペルの能力「1枚引く。」で1枚手札に加えたカードが『セイウンスカイ』の場合ですか？</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>いいえ。このスペルで選んだフォロワーが『セイウンスカイ』の場合です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>ライスシャワー</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》で、相手のフォロワーを選ぶことができない場合、自分のデッキの上2枚を墓場に置くことができますか？</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>いいえ。選ぶことができないのでこの能力をプレイすることはできず、自分のデッキの上2枚を墓場に置くことができません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>カレンチャン</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>このフォロワーの起動能力で、相手のフォロワーを選ぶことができない場合、自分のデッキの上1枚を墓場に置くことができますか？</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>いいえ。選ぶことができないのでこの能力をプレイすることはできず、自分のデッキの上1枚を墓場に置くことができません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>ゴールドシップ</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>このフォロワーの能力で公開したカードは、能力の解決後、どこに置かれますか？</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>元の位置に裏向きで戻します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>イクノディクタス</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》能力でタイプにウマ娘を持たないアミュレットを手札に加えることはできますか？</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>はい。このフォロワーの《ファンファーレ》能力はタイプにウマ娘を持つカードか、もしくはアミュレットの中から1枚を公開して手札に加えることができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>その背中を越えて</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>このアミュレットの《ファンファーレ》能力で、自分のデッキの上か下に置くカードは、相手に公開しますか？</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>いいえ。相手には公開しません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>メイショウドトウ</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>このフォロワーの【出走時】能力でデッキからコスト1のアミュレット1枚を探し場に出さなかったとき、《攻撃力》+1/《体力》+1しますか？</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>はい。《攻撃力》+1/《体力》+1します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>メジロライアン</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>メジロ家でないアミュレットが場を離れたとき、このフォロワーの「メジロ家・フォロワーかアミュレットが場を離れたとき～」で始まる能力は誘発しますか？</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>はい、誘発します。このフォロワーの能力はタイプにメジロ家を持つフォロワーか、もしくはアミュレットを参照します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>メジロライアン</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>メジロ家・フォロワーが場を離れたあと、このフォロワーを場に出したとき、このフォロワーは【疾走】を持ちますか？</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>いいえ。このフォロワーの能力は場以外では誘発しないため、【疾走】は持ちません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>運の行方</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》能力で自分のデッキから見たカードの中にコスト7のカードがあるとき、それを手札に加えないことを選択できますか？</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>はい。選択できます。
+その場合カードは公開せず、デッキの上に戻します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>〔徹底管理主義〕樫本理子</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>このフォロワーの【攻撃時】能力で相手のフォロワーを選ぶことができない場合、相手のリーダーに3ダメージ与えることができますか？</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>いいえ、選ぶことができないのでこの能力をプレイすることはできず、相手のリーダーに3ダメージ与えることができません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>紡がれてゆく想い</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>このスペルでウマ娘・フォロワーとウマ娘・アミュレットを両方場に出すことはできますか？</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>はい。公開した6枚の中から、ウマ娘・フォロワーとウマ娘・アミュレットのそれぞれを好きな枚数場に出すことができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>紡がれてゆく想い</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>このスペルの能力で同時に複数枚のカードが場に出ました。それらが《ファンファーレ》などの能力をそれぞれ持っていたとします。その場合、その能力はどの順番でプレイしますか？</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>任意の順番でプレイすることができます。
+まず『紡がれてゆく想い』の解決を行います。その後、《ファンファーレ》など、誘発条件を満たし待機状態となった能力の中からどれを先にプレイするか選ぶことができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>ブスッといっとく？</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>「サイコロをふる」とはなんですか？</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>1~6までの数字が無作為に決まるように、一般的な6面ダイスを1個ふることです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>ブスッといっとく？</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>このカードの能力によってこれを破壊するのは、サイコロの目がいくつのときですか？</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>サイコロの目が6のときのみ破壊します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>〔共に同じ道を！〕 桐生院葵</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>1体のフォロワーが3回出走した場合、そのフォロワーは《攻撃力》+3/《体力》+3しますか？</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>はい。出走した回数と同数《攻撃力》+1/《体力》+1するため、3回出走したフォロワーは《攻撃力》+3/《体力》+3します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>〔共に同じ道を！〕 桐生院葵</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>このフォロワーの《ファンファーレ》で表向きに置いた『にんじん』１枚を選ぶことができない場合、１枚引くことができますか？</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>いいえ。選ぶことができないのでこの能力をプレイすることはできず、１枚引くことはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>安心沢刺々美</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>このフォロワーの能力で公開したカードは、能力の解決後、どこに置かれますか？</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>元の位置に裏向きで戻します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>安心沢刺々美</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>このフォロワーで公開したカードがコスト0のとき、どちらのリーダーにダメージを与えますか？</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>コスト0は偶数のため、自分のリーダーに2ダメージ与えます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>407</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>にんじん</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>このカードの説明をお願いします。</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>このカードは、ウマ娘・フォロワーの《食事》能力で必要なカードであり、エボルヴデッキに入れることができます。
+通常の場合、同名のカードはエボルヴデッキに３枚まで入れることができますが、このカードは10枚まで入れることができます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>408</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>ダイワスカーレット</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>自分の残りPPが0で『ダイワスカーレット』が自分の場にいるとき、このターン中1枚目のウマ娘・スペルとしてプレイする元のコストが1の『見習い魔女と長い夜』をコスト0でプレイすることができますか？</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">はい。『見習い魔女と長い夜』のコストが0になるため、残りPPが0でもプレイできます。
 </t>
         </is>
       </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t xml:space="preserve">はい。手札は非公開領域のため、手札に条件を満たすカードがあることは保証されないことから、『カグヤ』の《ファンファーレ》能力で場に出さないこともできます。
-</t>
-        </is>
-      </c>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>409</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>ダイワスカーレット</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>自分のターン中、1枚目のウマ娘・スペルをプレイしたあとに『ダイワスカーレット』を場に出した場合、次にプレイするウマ娘・スペルのコストを-1することができますか？</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>いいえ。すでにそのターン中、1枚目のウマ娘・スペルをプレイしており、次にプレイするウマ娘・スペルはそのターン中に2枚目のウマ娘・スペルとなるので、『ダイワスカーレット』の能力でコストを-1することができません。</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>410</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>ライスシャワー</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>自分の場の『ライスシャワー』と『スペシャルウィーク』が同時に破壊された場合、『ライスシャワー』の《ラストワード》で、同時に破壊された『スペシャルウィーク』を目標に選ぶことはできますか？</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>はい。『ライスシャワー』の《ラストワード》の解決時には、同時に破壊された『スペシャルウィーク』は墓場にあるため、目標に選ぶことができます。</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>411</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>メジロマックイーン</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>『メジロマックイーン』の《ファンファーレ》のコストで『封じられし熾天使』を墓場に置き、能力をプレイすることができますか？</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>はい、プレイすることができます。この場合、「これは能力によって破壊されない。」という能力を持つ『封じられし熾天使』ですが墓場に置かれ、『メジロマックイーン』の《ファンファーレ》の能力がプレイされます。</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>412</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>根源への回帰</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>相手の場に『ヘヴンリーイージス』のような【オーラ】を持つフォロワーが1体だけいるとき、【コンボ_5】の条件を満たした状態で『根源への回帰』をプレイすることができますか？</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>いいえ。【コンボ_5】の条件を満たした状態で『根源への回帰』をプレイする場合でも、相手のフォロワー1体を選ぶ必要があります。相手のフォロワーを選ぶことができないので『根源への回帰』をプレイすることができません。</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>根源への回帰</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>相手の場に『ヘヴンリーイージス』のような【オーラ】を持つフォロワー1体と『ゴブリン』のような【オーラ】を持たないフォロワーが1体いるとき、【コンボ_5】の条件を満たした状態で『根源への回帰』をプレイすることができますか？</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>はい。【コンボ_5】の条件を満たした状態で『根源への回帰』をプレイする場合でも、相手のフォロワー1体を選ぶ必要があります。『ゴブリン』のような【オーラ】を持たないフォロワーを選ぶことによって問題なく『根源への回帰』をプレイすることができ、相手のフォロワーすべてに対して能力をプレイすることができます。</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
